--- a/M2_Temp_Example_ACF_PACF.xlsx
+++ b/M2_Temp_Example_ACF_PACF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ae440f2ab2537d1/Duke_University/11_Spring2023/ENV790_TSA/GitHub/TimeSeriesAnalysis_Sp23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayoungkim/TSA_Sp25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AC07674C-E78D-7741-A36E-6223CA6E3ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A92AA742-BFD2-5841-82A1-70D41489F990}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B24CA02-93D3-394D-9737-7AD4465F588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="500" windowWidth="35660" windowHeight="19320" xr2:uid="{363D6C71-834F-5F44-B625-737F54D7F40F}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19320" xr2:uid="{363D6C71-834F-5F44-B625-737F54D7F40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_exercise" sheetId="5" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>t</t>
   </si>
@@ -59,6 +63,18 @@
   </si>
   <si>
     <t>Collected data on observed temperature in Celsius - last 12 days</t>
+  </si>
+  <si>
+    <t>Y1_t</t>
+  </si>
+  <si>
+    <t>Y2_t</t>
+  </si>
+  <si>
+    <t>Y3_t</t>
+  </si>
+  <si>
+    <t>sdv</t>
   </si>
 </sst>
 </file>
@@ -167,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,12 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5711581A-D8F4-ED4D-A1AB-1B508492E906}">
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,129 +528,409 @@
     <col min="21" max="21" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="1">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="1">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="1">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="1">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="1">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="1">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="K14" s="1">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C15" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>CORREL(B5:B15,C5:C15)</f>
+        <v>0.45740390726668745</v>
+      </c>
+      <c r="G17" s="1">
+        <f>CORREL(F6:F15,G6:G15)</f>
+        <v>0.45888422850117244</v>
+      </c>
+      <c r="K17">
+        <f>CORREL(J7:J15,K7:K15)</f>
+        <v>0.22257333769587673</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1181,24 +1471,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L77:L97"/>
+    <mergeCell ref="M77:M97"/>
+    <mergeCell ref="N77:N97"/>
+    <mergeCell ref="G77:G97"/>
+    <mergeCell ref="H77:H97"/>
+    <mergeCell ref="I77:I97"/>
+    <mergeCell ref="J77:J97"/>
+    <mergeCell ref="K77:K97"/>
+    <mergeCell ref="B77:B97"/>
+    <mergeCell ref="C77:C97"/>
+    <mergeCell ref="D77:D97"/>
+    <mergeCell ref="E77:E97"/>
+    <mergeCell ref="F77:F97"/>
     <mergeCell ref="O77:O97"/>
     <mergeCell ref="P77:P97"/>
     <mergeCell ref="Q77:Q97"/>
     <mergeCell ref="R77:R97"/>
     <mergeCell ref="S77:S97"/>
-    <mergeCell ref="B77:B97"/>
-    <mergeCell ref="C77:C97"/>
-    <mergeCell ref="D77:D97"/>
-    <mergeCell ref="E77:E97"/>
-    <mergeCell ref="F77:F97"/>
-    <mergeCell ref="G77:G97"/>
-    <mergeCell ref="H77:H97"/>
-    <mergeCell ref="I77:I97"/>
-    <mergeCell ref="J77:J97"/>
-    <mergeCell ref="K77:K97"/>
-    <mergeCell ref="L77:L97"/>
-    <mergeCell ref="M77:M97"/>
-    <mergeCell ref="N77:N97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
